--- a/AuraSite/App/Data/second.xlsx
+++ b/AuraSite/App/Data/second.xlsx
@@ -19,10 +19,10 @@
     <t>Unnamed: 0</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1</t>
+  </si>
+  <si>
     <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>2017-06-10 15_10 - Nidhi Jain</t>
   </si>
   <si>
     <t>Parameters</t>
@@ -760,433 +760,460 @@
         <v>71</v>
       </c>
       <c r="BB1" s="1">
+        <v>74</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>75</v>
+      </c>
+      <c r="BD1" s="1">
         <v>76</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BE1" s="1">
         <v>77</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BF1" s="1">
         <v>78</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BG1" s="1">
         <v>79</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BH1" s="1">
         <v>80</v>
       </c>
-      <c r="BG1" s="1">
-        <v>81</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>82</v>
-      </c>
       <c r="BI1" s="1">
+        <v>83</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>84</v>
+      </c>
+      <c r="BK1" s="1">
         <v>85</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BL1" s="1">
         <v>86</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BM1" s="1">
         <v>87</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BN1" s="1">
         <v>88</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BO1" s="1">
         <v>89</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BP1" s="1">
         <v>90</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BQ1" s="1">
         <v>91</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BR1" s="1">
         <v>92</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BS1" s="1">
         <v>93</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="BT1" s="1">
         <v>94</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="BU1" s="1">
         <v>95</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BV1" s="1">
         <v>96</v>
       </c>
-      <c r="BU1" s="1">
-        <v>97</v>
-      </c>
-      <c r="BV1" s="1">
+      <c r="BW1" s="1">
         <v>98</v>
       </c>
-      <c r="BW1" s="1">
+      <c r="BX1" s="1">
+        <v>99</v>
+      </c>
+      <c r="BY1" s="1">
         <v>100</v>
       </c>
-      <c r="BX1" s="1">
+      <c r="BZ1" s="1">
         <v>101</v>
       </c>
-      <c r="BY1" s="1">
+      <c r="CA1" s="1">
         <v>102</v>
       </c>
-      <c r="BZ1" s="1">
+      <c r="CB1" s="1">
         <v>103</v>
       </c>
-      <c r="CA1" s="1">
+      <c r="CC1" s="1">
         <v>104</v>
       </c>
-      <c r="CB1" s="1">
+      <c r="CD1" s="1">
         <v>105</v>
       </c>
-      <c r="CC1" s="1">
+      <c r="CE1" s="1">
         <v>106</v>
       </c>
-      <c r="CD1" s="1">
+      <c r="CF1" s="1">
         <v>107</v>
       </c>
-      <c r="CE1" s="1">
+      <c r="CG1" s="1">
         <v>108</v>
       </c>
-      <c r="CF1" s="1">
+      <c r="CH1" s="1">
         <v>109</v>
       </c>
-      <c r="CG1" s="1">
+      <c r="CI1" s="1">
         <v>110</v>
       </c>
-      <c r="CH1" s="1">
+      <c r="CJ1" s="1">
         <v>111</v>
       </c>
-      <c r="CI1" s="1">
+      <c r="CK1" s="1">
         <v>112</v>
       </c>
-      <c r="CJ1" s="1">
+      <c r="CL1" s="1">
         <v>113</v>
       </c>
-      <c r="CK1" s="1">
+      <c r="CM1" s="1">
         <v>114</v>
       </c>
-      <c r="CL1" s="1">
+      <c r="CN1" s="1">
         <v>115</v>
       </c>
-      <c r="CM1" s="1">
+      <c r="CO1" s="1">
         <v>116</v>
       </c>
-      <c r="CN1" s="1">
+      <c r="CP1" s="1">
         <v>117</v>
       </c>
-      <c r="CO1" s="1">
+      <c r="CQ1" s="1">
         <v>118</v>
       </c>
-      <c r="CP1" s="1">
+      <c r="CR1" s="1">
         <v>119</v>
       </c>
-      <c r="CQ1" s="1">
+      <c r="CS1" s="1">
         <v>120</v>
-      </c>
-      <c r="CR1" s="1">
-        <v>121</v>
-      </c>
-      <c r="CS1" s="1">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:97">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>17</v>
+      </c>
+      <c r="N2">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>22</v>
+      </c>
+      <c r="P2">
+        <v>23</v>
+      </c>
+      <c r="Q2">
+        <v>24</v>
+      </c>
+      <c r="R2">
+        <v>25</v>
+      </c>
+      <c r="S2">
+        <v>26</v>
+      </c>
+      <c r="T2">
+        <v>27</v>
+      </c>
+      <c r="U2">
+        <v>28</v>
+      </c>
+      <c r="V2">
+        <v>31</v>
+      </c>
+      <c r="W2">
+        <v>32</v>
+      </c>
+      <c r="X2">
+        <v>33</v>
+      </c>
+      <c r="Y2">
         <v>34</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="Z2">
+        <v>35</v>
+      </c>
+      <c r="AA2">
+        <v>36</v>
+      </c>
+      <c r="AB2">
         <v>37</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="AC2">
+        <v>40</v>
+      </c>
+      <c r="AD2">
         <v>41</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="AE2">
+        <v>42</v>
+      </c>
+      <c r="AF2">
         <v>43</v>
       </c>
-      <c r="BR2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BW2" t="s">
+      <c r="AG2">
+        <v>44</v>
+      </c>
+      <c r="AH2">
+        <v>45</v>
+      </c>
+      <c r="AI2">
+        <v>46</v>
+      </c>
+      <c r="AJ2">
+        <v>48</v>
+      </c>
+      <c r="AK2">
+        <v>49</v>
+      </c>
+      <c r="AL2">
+        <v>53</v>
+      </c>
+      <c r="AM2">
+        <v>54</v>
+      </c>
+      <c r="AN2">
+        <v>55</v>
+      </c>
+      <c r="AO2">
         <v>56</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="AP2">
+        <v>57</v>
+      </c>
+      <c r="AQ2">
+        <v>58</v>
+      </c>
+      <c r="AR2">
+        <v>59</v>
+      </c>
+      <c r="AS2">
+        <v>60</v>
+      </c>
+      <c r="AT2">
+        <v>61</v>
+      </c>
+      <c r="AU2">
+        <v>62</v>
+      </c>
+      <c r="AV2">
+        <v>63</v>
+      </c>
+      <c r="AW2">
+        <v>64</v>
+      </c>
+      <c r="AX2">
+        <v>65</v>
+      </c>
+      <c r="AY2">
+        <v>66</v>
+      </c>
+      <c r="AZ2">
         <v>70</v>
       </c>
-      <c r="CP2" t="s">
-        <v>73</v>
-      </c>
-      <c r="CR2" t="s">
+      <c r="BA2">
+        <v>71</v>
+      </c>
+      <c r="BB2">
         <v>74</v>
+      </c>
+      <c r="BC2">
+        <v>75</v>
+      </c>
+      <c r="BD2">
+        <v>76</v>
+      </c>
+      <c r="BE2">
+        <v>77</v>
+      </c>
+      <c r="BF2">
+        <v>78</v>
+      </c>
+      <c r="BG2">
+        <v>79</v>
+      </c>
+      <c r="BH2">
+        <v>80</v>
+      </c>
+      <c r="BI2">
+        <v>83</v>
+      </c>
+      <c r="BJ2">
+        <v>84</v>
+      </c>
+      <c r="BK2">
+        <v>85</v>
+      </c>
+      <c r="BL2">
+        <v>86</v>
+      </c>
+      <c r="BM2">
+        <v>87</v>
+      </c>
+      <c r="BN2">
+        <v>88</v>
+      </c>
+      <c r="BO2">
+        <v>89</v>
+      </c>
+      <c r="BP2">
+        <v>90</v>
+      </c>
+      <c r="BQ2">
+        <v>91</v>
+      </c>
+      <c r="BR2">
+        <v>92</v>
+      </c>
+      <c r="BS2">
+        <v>93</v>
+      </c>
+      <c r="BT2">
+        <v>94</v>
+      </c>
+      <c r="BU2">
+        <v>95</v>
+      </c>
+      <c r="BV2">
+        <v>96</v>
+      </c>
+      <c r="BW2">
+        <v>98</v>
+      </c>
+      <c r="BX2">
+        <v>99</v>
+      </c>
+      <c r="BY2">
+        <v>100</v>
+      </c>
+      <c r="BZ2">
+        <v>101</v>
+      </c>
+      <c r="CA2">
+        <v>102</v>
+      </c>
+      <c r="CB2">
+        <v>103</v>
+      </c>
+      <c r="CC2">
+        <v>104</v>
+      </c>
+      <c r="CD2">
+        <v>105</v>
+      </c>
+      <c r="CE2">
+        <v>106</v>
+      </c>
+      <c r="CF2">
+        <v>107</v>
+      </c>
+      <c r="CG2">
+        <v>108</v>
+      </c>
+      <c r="CH2">
+        <v>109</v>
+      </c>
+      <c r="CI2">
+        <v>110</v>
+      </c>
+      <c r="CJ2">
+        <v>111</v>
+      </c>
+      <c r="CK2">
+        <v>112</v>
+      </c>
+      <c r="CL2">
+        <v>113</v>
+      </c>
+      <c r="CM2">
+        <v>114</v>
+      </c>
+      <c r="CN2">
+        <v>115</v>
+      </c>
+      <c r="CO2">
+        <v>116</v>
+      </c>
+      <c r="CP2">
+        <v>117</v>
+      </c>
+      <c r="CQ2">
+        <v>118</v>
+      </c>
+      <c r="CR2">
+        <v>119</v>
+      </c>
+      <c r="CS2">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:97">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>33</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>35</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD3" t="s">
+      <c r="AZ3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BC3" t="s">
         <v>37</v>
       </c>
-      <c r="BE3" t="s">
-        <v>38</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>40</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>42</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>44</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>47</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>50</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>62</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>63</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>64</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>65</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>66</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>67</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>68</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>69</v>
-      </c>
-      <c r="CM3" t="s">
+      <c r="BH3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CL3" t="s">
         <v>70</v>
       </c>
-      <c r="CN3" t="s">
-        <v>71</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>72</v>
-      </c>
-      <c r="CQ3" t="s">
+      <c r="CP3" t="s">
         <v>73</v>
       </c>
-      <c r="CS3" t="s">
+      <c r="CR3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1194,290 +1221,293 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>2.43</v>
-      </c>
-      <c r="D4">
-        <v>53.66</v>
-      </c>
-      <c r="E4">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="F4">
-        <v>86.12</v>
-      </c>
-      <c r="G4">
-        <v>2.39</v>
-      </c>
-      <c r="H4">
-        <v>2.43</v>
-      </c>
-      <c r="I4">
-        <v>73633</v>
-      </c>
-      <c r="J4">
-        <v>32.05</v>
-      </c>
-      <c r="K4">
-        <v>69135</v>
-      </c>
-      <c r="L4">
-        <v>29.13</v>
-      </c>
-      <c r="M4">
-        <v>70805</v>
-      </c>
-      <c r="N4">
-        <v>29.56</v>
-      </c>
-      <c r="O4">
-        <v>4.73</v>
-      </c>
-      <c r="P4">
-        <v>4.25</v>
-      </c>
-      <c r="Q4">
-        <v>4.38</v>
-      </c>
-      <c r="R4">
-        <v>4.34</v>
-      </c>
-      <c r="S4">
-        <v>5.06</v>
-      </c>
-      <c r="T4">
-        <v>4.36</v>
-      </c>
-      <c r="U4">
-        <v>4.4</v>
-      </c>
-      <c r="V4">
-        <v>74.33</v>
-      </c>
-      <c r="W4">
-        <v>83.45</v>
-      </c>
-      <c r="X4">
-        <v>86.64</v>
-      </c>
-      <c r="Y4">
-        <v>79.61</v>
-      </c>
-      <c r="Z4">
-        <v>87.15000000000001</v>
-      </c>
-      <c r="AA4">
-        <v>89.31</v>
-      </c>
-      <c r="AB4">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="AC4">
-        <v>-0.77</v>
-      </c>
-      <c r="AD4">
-        <v>0.5</v>
-      </c>
-      <c r="AE4">
-        <v>-0.4</v>
-      </c>
-      <c r="AF4">
-        <v>-0.61</v>
-      </c>
-      <c r="AG4">
-        <v>-0.39</v>
-      </c>
-      <c r="AH4">
-        <v>-0.32</v>
-      </c>
-      <c r="AI4">
-        <v>0.06</v>
-      </c>
-      <c r="AJ4">
-        <v>85.51000000000001</v>
-      </c>
-      <c r="AK4">
-        <v>64.19</v>
-      </c>
-      <c r="AL4">
-        <v>51.29</v>
-      </c>
-      <c r="AM4">
-        <v>48.71</v>
-      </c>
-      <c r="AN4">
-        <v>3.92</v>
-      </c>
-      <c r="AO4">
-        <v>4.9</v>
-      </c>
-      <c r="AP4">
-        <v>5.32</v>
-      </c>
-      <c r="AQ4">
-        <v>4.37</v>
-      </c>
-      <c r="AR4">
-        <v>4.47</v>
-      </c>
-      <c r="AS4">
-        <v>4.08</v>
-      </c>
-      <c r="AT4">
-        <v>3.8</v>
-      </c>
-      <c r="AU4">
-        <v>4.45</v>
-      </c>
-      <c r="AV4">
-        <v>3.97</v>
-      </c>
-      <c r="AW4">
-        <v>4.47</v>
-      </c>
-      <c r="AX4">
-        <v>4.46</v>
-      </c>
-      <c r="AY4">
-        <v>4.55</v>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>33</v>
       </c>
       <c r="AZ4">
-        <v>4.66</v>
-      </c>
-      <c r="BA4">
-        <v>4.2</v>
-      </c>
-      <c r="BB4">
-        <v>4.55</v>
+        <v>0</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>36</v>
       </c>
       <c r="BC4">
-        <v>4.03</v>
-      </c>
-      <c r="BD4">
-        <v>4.08</v>
-      </c>
-      <c r="BE4">
-        <v>3.92</v>
-      </c>
-      <c r="BF4">
-        <v>4</v>
-      </c>
-      <c r="BG4">
-        <v>4.1</v>
+        <v>0</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>40</v>
       </c>
       <c r="BH4">
-        <v>4.9</v>
-      </c>
-      <c r="BI4">
-        <v>4.03</v>
+        <v>0</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>42</v>
       </c>
       <c r="BJ4">
-        <v>4.46</v>
-      </c>
-      <c r="BK4">
-        <v>4.36</v>
-      </c>
-      <c r="BL4">
-        <v>4.4</v>
-      </c>
-      <c r="BM4">
-        <v>4.47</v>
-      </c>
-      <c r="BN4">
-        <v>4.99</v>
-      </c>
-      <c r="BO4">
-        <v>4.37</v>
-      </c>
-      <c r="BP4">
-        <v>4.85</v>
-      </c>
-      <c r="BQ4">
-        <v>3.75</v>
+        <v>0</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>45</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>50</v>
       </c>
       <c r="BR4">
-        <v>4.62</v>
-      </c>
-      <c r="BS4">
-        <v>3.9</v>
-      </c>
-      <c r="BT4">
-        <v>3.97</v>
-      </c>
-      <c r="BU4">
-        <v>4.02</v>
-      </c>
-      <c r="BV4">
-        <v>5.67</v>
+        <v>0</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>55</v>
       </c>
       <c r="BW4">
-        <v>4.41</v>
-      </c>
-      <c r="BX4">
-        <v>3.89</v>
-      </c>
-      <c r="BY4">
-        <v>4.88</v>
-      </c>
-      <c r="BZ4">
-        <v>5.96</v>
-      </c>
-      <c r="CA4">
-        <v>4.43</v>
-      </c>
-      <c r="CB4">
-        <v>4.26</v>
-      </c>
-      <c r="CC4">
-        <v>4.04</v>
-      </c>
-      <c r="CD4">
-        <v>3.63</v>
-      </c>
-      <c r="CE4">
-        <v>4.09</v>
-      </c>
-      <c r="CF4">
-        <v>3.75</v>
-      </c>
-      <c r="CG4">
-        <v>5.32</v>
-      </c>
-      <c r="CH4">
-        <v>4.37</v>
-      </c>
-      <c r="CI4">
-        <v>3.97</v>
-      </c>
-      <c r="CJ4">
-        <v>4</v>
-      </c>
-      <c r="CK4">
-        <v>4.47</v>
+        <v>0</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>59</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>61</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>63</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>64</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>65</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>66</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>48</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>67</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>68</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>69</v>
       </c>
       <c r="CL4">
-        <v>4.87</v>
-      </c>
-      <c r="CM4">
-        <v>4.55</v>
-      </c>
-      <c r="CN4">
-        <v>4.47</v>
-      </c>
-      <c r="CO4">
-        <v>5.61</v>
+        <v>0</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>70</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>71</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>72</v>
       </c>
       <c r="CP4">
-        <v>3.7</v>
-      </c>
-      <c r="CQ4">
-        <v>3.7</v>
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>73</v>
       </c>
       <c r="CR4">
-        <v>3.93</v>
-      </c>
-      <c r="CS4">
-        <v>3.93</v>
+        <v>0</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/AuraSite/App/Data/second.xlsx
+++ b/AuraSite/App/Data/second.xlsx
@@ -1249,294 +1249,294 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2018-11-24 09_36 - Priyanka Mitra</t>
+          <t>2017-12-24 17_02 - Dr. Amit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>2.71</v>
+        <v>2.32</v>
       </c>
       <c r="D4" t="n">
-        <v>54.38</v>
+        <v>60.28</v>
       </c>
       <c r="E4" t="n">
-        <v>99.23999999999999</v>
+        <v>97.41</v>
       </c>
       <c r="F4" t="n">
-        <v>91.26000000000001</v>
+        <v>92.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.61</v>
       </c>
       <c r="H4" t="n">
         <v>2.61</v>
       </c>
       <c r="I4" t="n">
-        <v>75013</v>
+        <v>81216</v>
       </c>
       <c r="J4" t="n">
-        <v>34.36</v>
+        <v>40.36</v>
       </c>
       <c r="K4" t="n">
-        <v>72405</v>
+        <v>78406</v>
       </c>
       <c r="L4" t="n">
-        <v>32.98</v>
+        <v>39.28</v>
       </c>
       <c r="M4" t="n">
-        <v>72868</v>
+        <v>82329</v>
       </c>
       <c r="N4" t="n">
-        <v>32.96</v>
+        <v>40.79</v>
       </c>
       <c r="O4" t="n">
-        <v>5.37</v>
+        <v>5.21</v>
       </c>
       <c r="P4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="U4" t="n">
         <v>4.99</v>
       </c>
-      <c r="Q4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
+        <v>92.31999999999999</v>
+      </c>
+      <c r="W4" t="n">
+        <v>79.12</v>
+      </c>
+      <c r="X4" t="n">
+        <v>93.67</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>98.93000000000001</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>92.47</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>98.73999999999999</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>96.09</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>93.05</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>79.20999999999999</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>50.05</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="AN4" t="n">
         <v>4.8</v>
       </c>
-      <c r="U4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="V4" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="W4" t="n">
-        <v>96.26000000000001</v>
-      </c>
-      <c r="X4" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>87.52</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>95.58</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>95.14</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>91.93000000000001</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>78.59</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51.58</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>48.42</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.16</v>
-      </c>
       <c r="AO4" t="n">
-        <v>5.47</v>
+        <v>4.69</v>
       </c>
       <c r="AP4" t="n">
-        <v>7.07</v>
+        <v>4.25</v>
       </c>
       <c r="AQ4" t="n">
-        <v>5.37</v>
+        <v>6.33</v>
       </c>
       <c r="AR4" t="n">
-        <v>5.22</v>
+        <v>4.75</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.67</v>
+        <v>5.84</v>
       </c>
       <c r="AT4" t="n">
-        <v>4.73</v>
+        <v>4.74</v>
       </c>
       <c r="AU4" t="n">
-        <v>4.74</v>
+        <v>5.12</v>
       </c>
       <c r="AV4" t="n">
-        <v>5.19</v>
+        <v>5.23</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.51</v>
+        <v>5.34</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.77</v>
+        <v>5.35</v>
       </c>
       <c r="AY4" t="n">
-        <v>5.06</v>
+        <v>4.84</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4.97</v>
+        <v>5.74</v>
       </c>
       <c r="BA4" t="n">
-        <v>4.53</v>
+        <v>5.79</v>
       </c>
       <c r="BB4" t="n">
-        <v>4.88</v>
+        <v>3.82</v>
       </c>
       <c r="BC4" t="n">
-        <v>4.4</v>
+        <v>4.85</v>
       </c>
       <c r="BD4" t="n">
-        <v>4.67</v>
+        <v>5.84</v>
       </c>
       <c r="BE4" t="n">
-        <v>4.16</v>
+        <v>4.8</v>
       </c>
       <c r="BF4" t="n">
-        <v>4.49</v>
+        <v>4.45</v>
       </c>
       <c r="BG4" t="n">
         <v>4.29</v>
       </c>
       <c r="BH4" t="n">
-        <v>5.47</v>
+        <v>4.69</v>
       </c>
       <c r="BI4" t="n">
-        <v>4.69</v>
+        <v>4.97</v>
       </c>
       <c r="BJ4" t="n">
-        <v>4.77</v>
+        <v>5.35</v>
       </c>
       <c r="BK4" t="n">
-        <v>4.44</v>
+        <v>5.14</v>
       </c>
       <c r="BL4" t="n">
-        <v>4.17</v>
+        <v>4.57</v>
       </c>
       <c r="BM4" t="n">
-        <v>4.23</v>
+        <v>5.37</v>
       </c>
       <c r="BN4" t="n">
-        <v>5.88</v>
+        <v>5.27</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>6.33</v>
       </c>
       <c r="BP4" t="n">
-        <v>4.66</v>
+        <v>5.24</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>5.52</v>
       </c>
       <c r="BR4" t="n">
-        <v>5.45</v>
+        <v>5</v>
       </c>
       <c r="BS4" t="n">
-        <v>4.38</v>
+        <v>4.89</v>
       </c>
       <c r="BT4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="CF4" t="n">
         <v>4.63</v>
       </c>
-      <c r="BU4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>4.9</v>
-      </c>
       <c r="CG4" t="n">
-        <v>7.07</v>
+        <v>4.25</v>
       </c>
       <c r="CH4" t="n">
-        <v>0</v>
+        <v>6.33</v>
       </c>
       <c r="CI4" t="n">
-        <v>5.19</v>
+        <v>5.23</v>
       </c>
       <c r="CJ4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="CM4" t="n">
         <v>4.84</v>
       </c>
-      <c r="CK4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>5.06</v>
-      </c>
       <c r="CN4" t="n">
-        <v>5.22</v>
+        <v>4.75</v>
       </c>
       <c r="CO4" t="n">
-        <v>5.88</v>
+        <v>4.56</v>
       </c>
       <c r="CP4" t="n">
-        <v>5.07</v>
+        <v>5.44</v>
       </c>
       <c r="CQ4" t="n">
-        <v>5.07</v>
+        <v>5.44</v>
       </c>
       <c r="CR4" t="n">
-        <v>5.77</v>
+        <v>5.26</v>
       </c>
       <c r="CS4" t="n">
-        <v>5.77</v>
+        <v>5.26</v>
       </c>
     </row>
   </sheetData>

--- a/AuraSite/App/Data/second.xlsx
+++ b/AuraSite/App/Data/second.xlsx
@@ -1249,294 +1249,294 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2017-12-24 17_02 - Dr. Amit</t>
+          <t>2018-11-27 13_28 - Kishan Lal Sharma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="D4" t="n">
-        <v>60.28</v>
+        <v>51.75</v>
       </c>
       <c r="E4" t="n">
-        <v>97.41</v>
+        <v>93.66</v>
       </c>
       <c r="F4" t="n">
-        <v>92.95</v>
+        <v>90.2</v>
       </c>
       <c r="G4" t="n">
-        <v>2.61</v>
+        <v>2.51</v>
       </c>
       <c r="H4" t="n">
-        <v>2.61</v>
+        <v>2.66</v>
       </c>
       <c r="I4" t="n">
-        <v>81216</v>
+        <v>75391</v>
       </c>
       <c r="J4" t="n">
-        <v>40.36</v>
+        <v>34.82</v>
       </c>
       <c r="K4" t="n">
-        <v>78406</v>
+        <v>74309</v>
       </c>
       <c r="L4" t="n">
-        <v>39.28</v>
+        <v>33.38</v>
       </c>
       <c r="M4" t="n">
-        <v>82329</v>
+        <v>73331</v>
       </c>
       <c r="N4" t="n">
-        <v>40.79</v>
+        <v>32.27</v>
       </c>
       <c r="O4" t="n">
-        <v>5.21</v>
+        <v>4.58</v>
       </c>
       <c r="P4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="R4" t="n">
         <v>5.25</v>
       </c>
-      <c r="Q4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4.51</v>
-      </c>
       <c r="S4" t="n">
-        <v>5.71</v>
+        <v>4.56</v>
       </c>
       <c r="T4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="V4" t="n">
+        <v>81.09</v>
+      </c>
+      <c r="W4" t="n">
+        <v>79.89</v>
+      </c>
+      <c r="X4" t="n">
+        <v>97.66</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>88.52</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>98.31</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>87.26000000000001</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>69.68000000000001</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>50.44</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>49.56</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="AO4" t="n">
         <v>5.01</v>
       </c>
-      <c r="U4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="V4" t="n">
-        <v>92.31999999999999</v>
-      </c>
-      <c r="W4" t="n">
-        <v>79.12</v>
-      </c>
-      <c r="X4" t="n">
-        <v>93.67</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>98.93000000000001</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>92.47</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>98.73999999999999</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>96.09</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>93.05</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>79.20999999999999</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>50.05</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="AN4" t="n">
+      <c r="AP4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="BV4" t="n">
         <v>4.8</v>
       </c>
-      <c r="AO4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="AU4" t="n">
+      <c r="BW4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="CE4" t="n">
         <v>5.12</v>
       </c>
-      <c r="AV4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="BZ4" t="n">
+      <c r="CF4" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="CJ4" t="n">
         <v>4.79</v>
       </c>
-      <c r="CA4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>6.22</v>
-      </c>
       <c r="CK4" t="n">
-        <v>5.34</v>
+        <v>4.23</v>
       </c>
       <c r="CL4" t="n">
-        <v>4.72</v>
+        <v>5.43</v>
       </c>
       <c r="CM4" t="n">
-        <v>4.84</v>
+        <v>6.48</v>
       </c>
       <c r="CN4" t="n">
-        <v>4.75</v>
+        <v>5.26</v>
       </c>
       <c r="CO4" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="CP4" t="n">
-        <v>5.44</v>
+        <v>5.13</v>
       </c>
       <c r="CQ4" t="n">
-        <v>5.44</v>
+        <v>5.13</v>
       </c>
       <c r="CR4" t="n">
-        <v>5.26</v>
+        <v>5.11</v>
       </c>
       <c r="CS4" t="n">
-        <v>5.26</v>
+        <v>5.11</v>
       </c>
     </row>
   </sheetData>
